--- a/FACTOR.xlsx
+++ b/FACTOR.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN2\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="38295" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18120" windowHeight="9315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -39,11 +44,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +86,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -612,7 +625,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -644,9 +657,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -678,6 +692,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -853,19 +868,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C6:I40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:9">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -883,10 +898,10 @@
       </c>
       <c r="I6" s="1">
         <f ca="1">NOW()</f>
-        <v>45524.925831828703</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9">
+        <v>45525.375683680555</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D7&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -909,8 +924,11 @@
         <f>MIN(G7:G40)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="8" spans="3:9">
+      <c r="L7">
+        <v>77777</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D8&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -928,7 +946,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="3:9">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D9&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -946,7 +964,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="3:9">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D10&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -964,7 +982,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="3:9">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D11&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -982,7 +1000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="3:9">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D12&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1000,7 +1018,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="3:9">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D13&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1018,7 +1036,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="3:9">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D14&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1036,7 +1054,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="3:9">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D15&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1054,7 +1072,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="3:9">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D16&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1072,7 +1090,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D17&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1090,7 +1108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D18&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1108,7 +1126,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="3:7">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D19&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1126,7 +1144,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="3:7">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D20&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1144,7 +1162,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="3:7">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D21&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1162,7 +1180,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="3:7">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D22&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1180,7 +1198,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="3:7">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D23&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1198,7 +1216,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="3:7">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D24&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1216,7 +1234,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="3:7">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D25&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1234,7 +1252,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="3:7">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D26&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1252,7 +1270,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="3:7">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D27&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1270,7 +1288,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="3:7">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D28&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1288,7 +1306,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="3:7">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D29&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1306,7 +1324,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="3:7">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D30&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1324,7 +1342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="3:7">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D31&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1342,7 +1360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="3:7">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D32&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1360,7 +1378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="3:7">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D33&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1378,7 +1396,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="3:7">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D34&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1396,7 +1414,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="3:7">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D35&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1414,7 +1432,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="3:7">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D36&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1432,7 +1450,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="3:7">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D37&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1450,7 +1468,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="3:7">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D38&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1468,7 +1486,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="3:7">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D39&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1486,7 +1504,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="3:7">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" t="e">
         <f>RTD("nest.scriprtd",,"nse_fo|BANKNIFTY24821"&amp;D40&amp;"CE","LTP")</f>
         <v>#N/A</v>
@@ -1511,24 +1529,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
